--- a/Excel-XLSX/UN-ALB.xlsx
+++ b/Excel-XLSX/UN-ALB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="375">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Jfa7J6</t>
+    <t>RIB9wt</t>
   </si>
   <si>
     <t>1992</t>
@@ -1125,46 +1125,22 @@
     <t>222</t>
   </si>
   <si>
+    <t>2203</t>
+  </si>
+  <si>
     <t>223</t>
   </si>
   <si>
     <t>224</t>
   </si>
   <si>
+    <t>9250</t>
+  </si>
+  <si>
     <t>225</t>
   </si>
   <si>
-    <t>2098</t>
-  </si>
-  <si>
     <t>226</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>SUD</t>
-  </si>
-  <si>
-    <t>SDN</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>6465</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>231</t>
   </si>
 </sst>
 </file>
@@ -1549,7 +1525,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V232"/>
+  <dimension ref="A1:V227"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -16372,7 +16348,7 @@
         <v>32</v>
       </c>
       <c r="T218" s="2" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="U218" s="1" t="s">
         <v>33</v>
@@ -16422,7 +16398,7 @@
         <v>30</v>
       </c>
       <c r="N219" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="O219" s="2" t="s">
         <v>32</v>
@@ -16558,7 +16534,7 @@
         <v>30</v>
       </c>
       <c r="N221" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O221" s="2" t="s">
         <v>32</v>
@@ -16576,7 +16552,7 @@
         <v>32</v>
       </c>
       <c r="T221" s="2" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="U221" s="1" t="s">
         <v>33</v>
@@ -16602,16 +16578,16 @@
         <v>363</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>202</v>
+        <v>25</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>211</v>
+        <v>26</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>212</v>
+        <v>27</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>212</v>
+        <v>27</v>
       </c>
       <c r="J222" s="2" t="s">
         <v>28</v>
@@ -16626,7 +16602,7 @@
         <v>30</v>
       </c>
       <c r="N222" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O222" s="2" t="s">
         <v>32</v>
@@ -16644,7 +16620,7 @@
         <v>32</v>
       </c>
       <c r="T222" s="2" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="U222" s="1" t="s">
         <v>33</v>
@@ -16670,16 +16646,16 @@
         <v>363</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>51</v>
+        <v>196</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>52</v>
+        <v>197</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>53</v>
+        <v>198</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="J223" s="2" t="s">
         <v>28</v>
@@ -16709,10 +16685,10 @@
         <v>32</v>
       </c>
       <c r="S223" s="2" t="s">
-        <v>32</v>
+        <v>369</v>
       </c>
       <c r="T223" s="2" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="U223" s="1" t="s">
         <v>33</v>
@@ -16732,22 +16708,22 @@
         <v>22</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>363</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>184</v>
+        <v>69</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>185</v>
+        <v>70</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="J224" s="2" t="s">
         <v>28</v>
@@ -16762,7 +16738,7 @@
         <v>30</v>
       </c>
       <c r="N224" s="2" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="O224" s="2" t="s">
         <v>32</v>
@@ -16780,7 +16756,7 @@
         <v>32</v>
       </c>
       <c r="T224" s="2" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="U224" s="1" t="s">
         <v>33</v>
@@ -16800,22 +16776,22 @@
         <v>22</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>363</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>26</v>
+        <v>347</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>27</v>
+        <v>348</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>27</v>
+        <v>348</v>
       </c>
       <c r="J225" s="2" t="s">
         <v>28</v>
@@ -16830,7 +16806,7 @@
         <v>30</v>
       </c>
       <c r="N225" s="2" t="s">
-        <v>134</v>
+        <v>372</v>
       </c>
       <c r="O225" s="2" t="s">
         <v>32</v>
@@ -16868,22 +16844,22 @@
         <v>22</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>363</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>196</v>
+        <v>54</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="J226" s="2" t="s">
         <v>28</v>
@@ -16898,7 +16874,7 @@
         <v>30</v>
       </c>
       <c r="N226" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="O226" s="2" t="s">
         <v>32</v>
@@ -16913,7 +16889,7 @@
         <v>32</v>
       </c>
       <c r="S226" s="2" t="s">
-        <v>372</v>
+        <v>32</v>
       </c>
       <c r="T226" s="2" t="s">
         <v>32</v>
@@ -16936,22 +16912,22 @@
         <v>22</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>363</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>374</v>
+        <v>275</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>375</v>
+        <v>276</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>376</v>
+        <v>276</v>
       </c>
       <c r="J227" s="2" t="s">
         <v>28</v>
@@ -16966,7 +16942,7 @@
         <v>30</v>
       </c>
       <c r="N227" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="O227" s="2" t="s">
         <v>32</v>
@@ -16984,352 +16960,12 @@
         <v>32</v>
       </c>
       <c r="T227" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="U227" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V227" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G228" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H228" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I228" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J228" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K228" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L228" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M228" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N228" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="O228" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P228" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q228" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R228" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S228" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T228" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U228" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V228" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G229" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H229" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I229" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J229" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K229" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L229" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M229" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N229" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O229" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P229" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q229" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R229" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S229" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T229" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U229" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V229" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G230" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="H230" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I230" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="J230" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K230" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L230" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M230" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N230" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="O230" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P230" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q230" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R230" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S230" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T230" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U230" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V230" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G231" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H231" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I231" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J231" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K231" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L231" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M231" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N231" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O231" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P231" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q231" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R231" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S231" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T231" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U231" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V231" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F232" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G232" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H232" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="I232" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="J232" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K232" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L232" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M232" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N232" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O232" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P232" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q232" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R232" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S232" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T232" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U232" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V232" s="2" t="s">
         <v>32</v>
       </c>
     </row>
